--- a/content/excel/Fichas década8 (1960).xlsx
+++ b/content/excel/Fichas década8 (1960).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="ÁREA DE NOTAS" sheetId="6" r:id="rId6"/>
     <sheet name="ÁREA DE DESCRIPCIÓN" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="748">
   <si>
     <t>La Hora de los hornos, es un documental sobre los efectos del imperialismo en Sudamérica.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>Alemania</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Titulos en armenio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Portugués</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>23´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Artavazd Pelechian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,10 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>23´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>L. Volkova</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -348,13 +332,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2´19"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franz Simon / A. Amzulescu</t>
-  </si>
-  <si>
     <t>MXIM-AV-1-8-29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -375,10 +352,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Úrsula Mares</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Película documental</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,10 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bblanco y negro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sin sonido</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -438,10 +407,6 @@
   </si>
   <si>
     <t>Armenia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -594,10 +559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>26´38"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Joris Ivens</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,10 +567,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Georges Strouvé / Asistente de cámara: Patricio Guzmán</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jean Ravel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -622,10 +579,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jean Rouch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Un lion nommé "l´américain"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Grabación de campo, voz en off, conducción, música de época</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -678,10 +627,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>26´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DVD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -733,10 +678,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>90´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>La pyramide humaine</t>
   </si>
   <si>
@@ -759,10 +700,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>88´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Josée Mararasso, Dov hoenig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -799,10 +736,6 @@
   </si>
   <si>
     <t>Francia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -920,9 +853,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>85´10´´</t>
-  </si>
-  <si>
     <t>Jean Rouch (31 de mayo de 1917 - 18 de febrero de 2004) era un cineasta y antropólogo francés. Su larga relación con los temas africanos empezó en 1941 después de trabajar como ingeniero civil supervisor de un proyecto de construcción en Níger. Poco después volvió a Francia para participar en la [Resistencia francesa]. Después de la Segunda Guerra Mundial, trabajó temporalmente como periodista con la Agencia France-Presse antes de regresar a África en donde trabajó como antropólogo influyente y un cineasta a veces polémico. Autor de documental etnográfico desde los años 1950 hasta 1980. (http://es.wikipedia.org/wiki/Jean_Rouch) Edgar Morin: Filósofo y político francés de origen judeo-español (sefardí), nacido en París el 8 de julio de 1921, su nombre anterior era Edgar Nahum. Al integrarse a la Centro Nacional de Investigación Científica (CNRS), Morin se inicia en el campo de la antropología social en el terreno de la cinematografía, aproximándose al surrealismo, aunque todavía no abandonando el socialismo, del cual comparte ideas con Franco Fortini y Roberto Guiducci, así como de Herbert Marcuse y otros filósofos. (Extraído de http://es.wikipedia.org/wiki/Edgar_Morin) En 1959 publica un manifiesto a favor de un nuevo cinéma vérité y, durante 1960, rueda la película “Chronique d’un été”. http://www.edgarmorin.com/Default.aspx?tabid=57</t>
   </si>
   <si>
@@ -961,22 +891,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>78'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Oscar Menéndez</t>
   </si>
   <si>
-    <t>Jean Rouch/Edgar Morin</t>
-  </si>
-  <si>
     <t>Roger Moriller, Raoul Coutard, Jean- Jacques Tarbes y Michael Brault</t>
   </si>
   <si>
-    <t>Jean Ravel/Néna Baratier/Francois Colin</t>
-  </si>
-  <si>
     <t>Santiago Álvarez Román Nace el 8 de marzo de 1919. Uno de los artífices más sobresalientes del cine cubano y figura destacada a nivel internacional. Su documental Now (1965), sobre la discriminación racial en los Estados Unidos, es considerado por especialistas como el antecedente del video clip actual. Realizó otras importantes obras como Ciclón, Muerte al invasor, Hanoi, martes 13, L.B.J. y 79 primaveras, clásicos de la filmografía contemporánea. Fundador y director por más de 20 años del Noticiero ICAIC Latinoamericano, su obra se destacó por la presencia activa del periodismo, el reflejo de importantes sucesos históricos como la guerra de Vietnam y la invasión mercenaria a Cuba en 1961, el genial uso del montaje y el empleo de la banda sonora como parte indisoluble de la acción dramática. Defendía la importancia del periodismo cinematográfico como enriquecedor del documental y afirmaba: "Yo informo de acontecimientos a partir de ideas que tengo sobre esos acontecimientos." Por su labor como cineasta recibió más de 80 primeros premios en festivales internacionales y concursos nacionales. Fue nombrado miembro de la Academia de Artes de la República Democrática Alemana y maestro perenne de la Escuela Internacional de Cine y Televisión de San Antonio de los Baños. Fue asesor del Ministro de Cultura de Cuba, Presidente de la Federación Nacional de Cine clubs y hasta 1986, fue miembro de la Asamblea Nacional del Poder Popular. Obtuvo los títulos de: Gran Brujo de los Andes y Cronista del Tercer Mundo. En su Honor, en la actualidad, se celebra anualmente, en la ciudad de Santiago de Cuba, el Festival Internacional de Documentales Santiago Álvarez In Memoriam. Fallece en la Ciudad de La Habana el 20 de mayo de 1998. (http://www.cubacine.cu/realizad/salvarez.html)</t>
   </si>
   <si>
@@ -1001,9 +921,6 @@
     <t>La Habana, Cuba</t>
   </si>
   <si>
-    <t>33' 29''</t>
-  </si>
-  <si>
     <t>Santiago Álvarez</t>
   </si>
   <si>
@@ -1123,9 +1040,6 @@
   <si>
     <t>Propio</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E. Cardenas/I. Gálvez/A. Herrera/A. Hernández/J. Martinez/J. Pucheux/D. Quesada/P. Rodríguez/R. Saavedra/N. Torrado/A. Valdes/Archivos ICAIC e ICR</t>
   </si>
   <si>
     <t>Santiago Alvarez</t>
@@ -1578,9 +1492,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>19' 18''</t>
-  </si>
-  <si>
     <t>Frederic Rossif</t>
   </si>
   <si>
@@ -1598,9 +1509,6 @@
     <t>Registros fílmicos, hemerografía, cartografía, testimonios orales, testimonios videorales, documentos</t>
   </si>
   <si>
-    <t>05' 27''</t>
-  </si>
-  <si>
     <t>Instituto Cubano del Arte e Industria Cinematográficas</t>
   </si>
   <si>
@@ -1699,9 +1607,6 @@
     <t>Hugh Raggett</t>
   </si>
   <si>
-    <t>32´</t>
-  </si>
-  <si>
     <t>BTF</t>
   </si>
   <si>
@@ -1714,10 +1619,6 @@
     <t>Estados Unidos</t>
   </si>
   <si>
-    <t>47´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Mac Owen</t>
   </si>
   <si>
@@ -1743,18 +1644,12 @@
     <t>La jetée</t>
   </si>
   <si>
-    <t>26' 50''</t>
-  </si>
-  <si>
     <t>Chris Marker</t>
   </si>
   <si>
     <t>Voces: Francisco Petrone, María Rosa Gallo, Guillermo Cervantes Luro</t>
   </si>
   <si>
-    <t>33´</t>
-  </si>
-  <si>
     <t>Instituto de Cinematografía de la Universidad Nacional del Litoral</t>
   </si>
   <si>
@@ -1765,9 +1660,6 @@
   </si>
   <si>
     <t>Italia</t>
-  </si>
-  <si>
-    <t>21' 58''</t>
   </si>
   <si>
     <t>Virgilio Tossi</t>
@@ -1863,9 +1755,6 @@
     <t>Inglés-Francés</t>
   </si>
   <si>
-    <t>Color/Blanco y negro</t>
-  </si>
-  <si>
     <t>Monoaural</t>
   </si>
   <si>
@@ -1888,19 +1777,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>58´34¨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>La dirección de actores</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>La Direction d acteur por Jean Renoir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21´42"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1945,10 +1826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>18´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Richard Leacock, Noel E. Parmentel Jr.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1969,10 +1846,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bill Brayne/ Asistente de cámara: David Martin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Grabación de campo, voz en off, conducción, música de época, entrevistas, intertítulos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2001,10 +1874,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>95´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>La llegada de una nueva alumna, Nadine, es el punto de partida de un análisis de las relaciones interraciales en un Liceo de Abidján en Costa de Marfil. Reunidos por Jean Rouch, los alumnos interpretan a su propio personaje en una "ficción" que se desarrolla a través de las nuevas relaciones entre blancos y negros, escenificando los lazos de amistad y las relaciones sentimentales. (FILMAFFINITY)</t>
   </si>
   <si>
@@ -2028,10 +1897,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>96´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>D.A. Pennebaker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2132,10 +1997,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>83´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Frederick Wiseman</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2192,10 +2053,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>90´</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pier Paolo Pasolini</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2204,10 +2061,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10´06"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Material audiovisual registrado en la base de datos de la Biblioteca Ernesto de la Torre Villar, Instituto Mora. Código de referencia: VV 791.4353 MEX.b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2272,10 +2125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Color / Blanco y negro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Úrsula Mares </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2399,10 +2248,6 @@
   </si>
   <si>
     <t>no. 393</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20´</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2763,10 +2608,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9´13"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Werner Herzog</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2788,10 +2629,6 @@
   </si>
   <si>
     <t>Alemania</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12´46"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3026,9 +2863,6 @@
     <t>Juan de Garay</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentina: Santa Fé, Mitre., Rosario, Buenos Aires, Bajos del salado, </t>
-  </si>
-  <si>
     <t xml:space="preserve">1573, 1956-1957-1958, </t>
   </si>
   <si>
@@ -3120,9 +2954,6 @@
     <t>Tire Die.</t>
   </si>
   <si>
-    <t>14/04/20145</t>
-  </si>
-  <si>
     <t>Penélope Ubaldo</t>
   </si>
   <si>
@@ -3159,18 +2990,12 @@
     <t xml:space="preserve">Agora Films </t>
   </si>
   <si>
-    <t xml:space="preserve">Miren Alexandresco / Henri Torrent </t>
-  </si>
-  <si>
     <t>Georges Van Parys /Georges Tzipine</t>
   </si>
   <si>
     <t>Español (ibérico)</t>
   </si>
   <si>
-    <t xml:space="preserve">11 de nov de 1918, 14 de julio 1919, 7 de octubre de 1917, 3 de marzo de 1918, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Francia, Alsacia, Lorena, París, Versalles, Petrogrado, Perspectiva Nevski, Brest-Litovsk, Luna Park, Egipto, Tumba de Tutankamon, Antinea, Constantinopla, Persia, India, Río Sena, Torre Eiffel, </t>
   </si>
   <si>
@@ -3195,9 +3020,6 @@
     <t xml:space="preserve">Antonio Pérez Alías, Federica Martín, Alfonso Muñoz, Estela Kune, Miguel Ángel Menéndez, Miguel Antochiw, Héctor Castro, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nacho López/Archivo Casasola, Eduardo del Rio (Rius) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pedro Velázquez, Moíses Ortega, Beatriz Florez, Sergio Jurado, </t>
   </si>
   <si>
@@ -3220,9 +3042,6 @@
   </si>
   <si>
     <t>Cuba: Santiago, San Antoio de los Baños, Playa Girón, Guatemala, Puerto Rico</t>
-  </si>
-  <si>
-    <t>16´</t>
   </si>
   <si>
     <t xml:space="preserve">Hitler, Fidel Castro, Kennedy, Lázaro Cárdenas, </t>
@@ -3296,6 +3115,147 @@
   </si>
   <si>
     <t>Siegfried Müller</t>
+  </si>
+  <si>
+    <t>90'</t>
+  </si>
+  <si>
+    <t>33'</t>
+  </si>
+  <si>
+    <t>26'38''</t>
+  </si>
+  <si>
+    <t>9'</t>
+  </si>
+  <si>
+    <t>23'</t>
+  </si>
+  <si>
+    <t>18'</t>
+  </si>
+  <si>
+    <t>85'10''</t>
+  </si>
+  <si>
+    <t>96'</t>
+  </si>
+  <si>
+    <t>21'58''</t>
+  </si>
+  <si>
+    <t>33'29''</t>
+  </si>
+  <si>
+    <t>19'18''</t>
+  </si>
+  <si>
+    <t>110'</t>
+  </si>
+  <si>
+    <t>88'</t>
+  </si>
+  <si>
+    <t>21'42''</t>
+  </si>
+  <si>
+    <t>20'</t>
+  </si>
+  <si>
+    <t>26'50''</t>
+  </si>
+  <si>
+    <t>9'13''</t>
+  </si>
+  <si>
+    <t>58'34''</t>
+  </si>
+  <si>
+    <t>83'</t>
+  </si>
+  <si>
+    <t>95'</t>
+  </si>
+  <si>
+    <t>78'</t>
+  </si>
+  <si>
+    <t>87'</t>
+  </si>
+  <si>
+    <t>16'</t>
+  </si>
+  <si>
+    <t>5'27''</t>
+  </si>
+  <si>
+    <t>12'46''</t>
+  </si>
+  <si>
+    <t>2'19''</t>
+  </si>
+  <si>
+    <t>10'06''</t>
+  </si>
+  <si>
+    <t>47'</t>
+  </si>
+  <si>
+    <t>32'</t>
+  </si>
+  <si>
+    <t>26'</t>
+  </si>
+  <si>
+    <t>34'</t>
+  </si>
+  <si>
+    <t>Jean Rouch, Edgar Morin</t>
+  </si>
+  <si>
+    <t>Franz Simon,  A. Amzulescu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miren Alexandresco, Henri Torrent </t>
+  </si>
+  <si>
+    <t>E. Cardenas, I. Gálvez, A. Herrera, A. Hernández, J. Martinez, J. Pucheux, D. Quesada, P. Rodríguez, R. Saavedra, N. Torrado, A. Valdes, Archivos ICAIC e ICR</t>
+  </si>
+  <si>
+    <t>Georges Strouvé , Asistente de cámara: Patricio Guzmán</t>
+  </si>
+  <si>
+    <t>Bill Brayne, Asistente de cámara: David Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacho López, Archivo Casasola, Eduardo del Rio (Rius) </t>
+  </si>
+  <si>
+    <t>Jean Ravel, Néna Baratier, Francois Colin</t>
+  </si>
+  <si>
+    <t>Un lion nommé ''l´américain''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina: Santa Fé, Mitre, Rosario, Buenos Aires, Bajos del salado, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 de noviembre de 1918, 14 de julio 1919, 7 de octubre de 1917, 3 de marzo de 1918, </t>
+  </si>
+  <si>
+    <t>Armenio</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Blanco y negro, color</t>
+  </si>
+  <si>
+    <t>Úrsula Mares, Penélope Ubaldo</t>
+  </si>
+  <si>
+    <t>20/09/2012, 14/04/2015</t>
   </si>
 </sst>
 </file>
@@ -3567,7 +3527,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3713,7 +3673,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3721,9 +3680,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3735,6 +3691,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3769,6 +3731,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4108,10 +4073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4145,13 +4110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="A1" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4176,35 +4141,35 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="T2" s="83"/>
-      <c r="U2" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="V2" s="83"/>
+      <c r="J2" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="T2" s="85"/>
+      <c r="U2" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="85"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13"/>
@@ -4212,353 +4177,353 @@
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="S3" s="15" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="59" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="H4" s="57">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="76" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="49">
         <v>1961</v>
       </c>
-      <c r="I4" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
+      <c r="I4" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="J4" s="75"/>
+      <c r="K4" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
     </row>
     <row r="5" spans="1:26" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="16" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="H5" s="16">
         <v>1960</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>445</v>
+        <v>702</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="59" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="57">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="76" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="49">
         <v>1962</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-    </row>
-    <row r="7" spans="1:26" s="59" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="57">
+      <c r="I6" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="J6" s="75"/>
+      <c r="K6" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="75"/>
+      <c r="M6" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+    </row>
+    <row r="7" spans="1:26" s="76" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="49">
         <v>1967</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="57" t="s">
+      <c r="I7" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="J7" s="75"/>
+      <c r="K7" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="75"/>
+      <c r="V7" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+    </row>
+    <row r="8" spans="1:26" s="76" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="58"/>
-      <c r="V7" s="57" t="s">
+      <c r="C8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-    </row>
-    <row r="8" spans="1:26" s="59" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="H8" s="49">
+        <v>1969</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="J8" s="75"/>
+      <c r="K8" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="57">
-        <v>1969</v>
-      </c>
-      <c r="I8" s="57" t="s">
+      <c r="S8" s="75"/>
+      <c r="T8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
     </row>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="16" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="H9" s="16">
         <v>1969</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>477</v>
+        <v>706</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="16" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -4578,165 +4543,165 @@
     </row>
     <row r="10" spans="1:26" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="16" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="H10" s="16">
         <v>1960</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>220</v>
+        <v>707</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>233</v>
+        <v>732</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>233</v>
+        <v>732</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>670</v>
+        <v>625</v>
       </c>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>235</v>
+        <v>739</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="T10" s="53" t="s">
-        <v>668</v>
+        <v>623</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="53" t="s">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="16" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="H11" s="16">
         <v>1965</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>539</v>
+        <v>701</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="16" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="16" t="s">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="16" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="T11" s="53" t="s">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="16" t="s">
-        <v>530</v>
+        <v>492</v>
       </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="16" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="16" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="H12" s="16">
         <v>1967</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>498</v>
+        <v>708</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="16" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="16" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="16" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="16" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="T12" s="18"/>
       <c r="U12" s="16" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -4746,13 +4711,13 @@
     </row>
     <row r="13" spans="1:26" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4764,13 +4729,13 @@
         <v>1969</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>73</v>
+        <v>705</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -4779,11 +4744,11 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S13" s="18"/>
       <c r="T13" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
@@ -4792,289 +4757,289 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" s="59" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>409</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="H14" s="57">
+    <row r="14" spans="1:26" s="76" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="49">
         <v>1969</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
+      <c r="I14" s="49" t="s">
+        <v>709</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
     </row>
     <row r="15" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="16" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="H15" s="16">
         <v>1968</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>243</v>
+        <v>710</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="16" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="H16" s="16">
         <v>1967</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>391</v>
+        <v>711</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
-        <v>276</v>
+        <v>735</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" s="59" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>515</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="57">
+    <row r="17" spans="1:26" s="76" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="49">
         <v>1967</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-    </row>
-    <row r="18" spans="1:26" s="59" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="57">
+      <c r="I17" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+    </row>
+    <row r="18" spans="1:26" s="76" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="49">
         <v>1965</v>
       </c>
-      <c r="I18" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="S18" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
+      <c r="I18" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="J18" s="75"/>
+      <c r="K18" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="75"/>
+      <c r="M18" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="S18" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
     </row>
     <row r="19" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="16" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H19" s="16">
         <v>1968</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>470</v>
+        <v>714</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="16" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="16" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="18"/>
       <c r="R19" s="16" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
@@ -5086,31 +5051,31 @@
     </row>
     <row r="20" spans="1:26" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="16" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="H20" s="16">
         <v>1968</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="16" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="16"/>
@@ -5130,29 +5095,29 @@
     </row>
     <row r="21" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="16" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="H21" s="16">
         <v>1963</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>442</v>
+        <v>716</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
@@ -5161,161 +5126,161 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" s="59" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>631</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>611</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="H22" s="57">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="76" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="H22" s="49">
         <v>1962</v>
       </c>
-      <c r="I22" s="57" t="s">
-        <v>615</v>
-      </c>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57" t="s">
-        <v>616</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="57" t="s">
-        <v>616</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="57" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="57" t="s">
-        <v>618</v>
-      </c>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-    </row>
-    <row r="23" spans="1:26" s="59" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="57">
+      <c r="I22" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="L22" s="75"/>
+      <c r="M22" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+    </row>
+    <row r="23" spans="1:26" s="76" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="49">
         <v>1962</v>
       </c>
-      <c r="I23" s="57" t="s">
-        <v>467</v>
-      </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="57" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="57" t="s">
-        <v>578</v>
-      </c>
-      <c r="S23" s="57" t="s">
-        <v>582</v>
-      </c>
-      <c r="T23" s="57" t="s">
-        <v>583</v>
-      </c>
-      <c r="U23" s="57" t="s">
-        <v>584</v>
-      </c>
-      <c r="V23" s="57" t="s">
-        <v>596</v>
-      </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="57" t="s">
-        <v>586</v>
+      <c r="I23" s="49" t="s">
+        <v>718</v>
+      </c>
+      <c r="J23" s="75"/>
+      <c r="K23" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="75"/>
+      <c r="M23" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="S23" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="T23" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="U23" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="V23" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="49" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="H24" s="16">
         <v>1969</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>524</v>
+        <v>719</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="16" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>483</v>
+        <v>737</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="16" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
@@ -5328,29 +5293,29 @@
     </row>
     <row r="25" spans="1:26" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="H25" s="16">
         <v>1961</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>491</v>
+        <v>720</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="16" t="s">
-        <v>705</v>
+        <v>734</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -5363,155 +5328,155 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="68" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" s="59" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="57">
+    <row r="26" spans="1:26" s="76" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="49">
         <v>1968</v>
       </c>
-      <c r="I26" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="57" t="s">
-        <v>147</v>
+      <c r="I26" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="J26" s="75"/>
+      <c r="K26" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="49" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="16" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H27" s="16">
         <v>1966</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>231</v>
+        <v>721</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>720</v>
+        <v>671</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16" t="s">
-        <v>719</v>
+        <v>670</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16" t="s">
-        <v>722</v>
+        <v>673</v>
       </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="H28" s="16">
         <v>1961</v>
       </c>
-      <c r="I28" s="16">
-        <v>87</v>
+      <c r="I28" s="16" t="s">
+        <v>722</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="16" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
@@ -5519,51 +5484,51 @@
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>730</v>
+        <v>680</v>
       </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>723</v>
+        <v>674</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="16" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="H29" s="16">
         <v>1961</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="16" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="16" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
@@ -5572,7 +5537,7 @@
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="16" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
@@ -5580,29 +5545,29 @@
     </row>
     <row r="30" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="16" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="H30" s="16">
         <v>1965</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>397</v>
+        <v>724</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -5620,119 +5585,119 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" s="59" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
-        <v>605</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>619</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="57" t="s">
-        <v>620</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>621</v>
-      </c>
-      <c r="H31" s="57">
+    <row r="31" spans="1:26" s="76" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="H31" s="49">
         <v>1968</v>
       </c>
-      <c r="I31" s="57" t="s">
-        <v>622</v>
-      </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="L31" s="58"/>
-      <c r="M31" s="57" t="s">
-        <v>623</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="57" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-    </row>
-    <row r="32" spans="1:26" s="59" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57">
+      <c r="I31" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="L31" s="75"/>
+      <c r="M31" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+    </row>
+    <row r="32" spans="1:26" s="76" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49">
         <v>1968</v>
       </c>
-      <c r="I32" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="J32" s="58"/>
-      <c r="K32" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
+      <c r="I32" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="J32" s="75"/>
+      <c r="K32" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
     </row>
     <row r="33" spans="1:26" ht="84.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="16" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="H33" s="16">
         <v>1962</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>542</v>
+        <v>727</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -5752,33 +5717,33 @@
     </row>
     <row r="34" spans="1:26" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="16" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="H34" s="16">
         <v>1963</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>433</v>
+        <v>728</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="16" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -5794,110 +5759,110 @@
     </row>
     <row r="35" spans="1:26" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="16" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="H35" s="16">
         <v>1961</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>428</v>
+        <v>729</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="T35" s="16"/>
       <c r="U35" s="16" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
       <c r="Y35" s="18"/>
       <c r="Z35" s="16" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="59" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" s="57">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" s="76" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="49">
         <v>3</v>
       </c>
-      <c r="G36" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="57">
+      <c r="G36" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="49">
         <v>1962</v>
       </c>
-      <c r="I36" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" s="58"/>
-      <c r="K36" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="S36" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
+      <c r="I36" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="J36" s="75"/>
+      <c r="K36" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
     </row>
     <row r="37" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
@@ -5917,11 +5882,11 @@
         <v>1965</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>15</v>
+        <v>731</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -6000,13 +5965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="A1" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -6015,11 +5980,11 @@
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="21"/>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -6027,82 +5992,82 @@
     </row>
     <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="59" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:9" ht="249" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
       <c r="I5" s="55">
         <v>35712</v>
@@ -6110,33 +6075,33 @@
     </row>
     <row r="6" spans="1:9" s="59" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="62" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
     </row>
     <row r="7" spans="1:9" s="59" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -6148,10 +6113,10 @@
     </row>
     <row r="8" spans="1:9" s="59" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -6163,97 +6128,97 @@
     </row>
     <row r="9" spans="1:9" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="42" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" ht="218.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>671</v>
+        <v>626</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="395.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="67" t="s">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="356.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="16" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="45" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -6264,22 +6229,22 @@
     </row>
     <row r="14" spans="1:9" s="59" customFormat="1" ht="300.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="57"/>
       <c r="F14" s="64" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I14" s="57">
         <v>1999</v>
@@ -6287,28 +6252,28 @@
     </row>
     <row r="15" spans="1:9" ht="288.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I15" s="16">
         <v>1999</v>
@@ -6316,28 +6281,28 @@
     </row>
     <row r="16" spans="1:9" ht="260.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>385</v>
-      </c>
       <c r="H16" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I16" s="16">
         <v>2001</v>
@@ -6345,66 +6310,66 @@
     </row>
     <row r="17" spans="1:9" ht="285" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="46" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="46" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="284.10000000000002" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="46" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -6412,20 +6377,20 @@
     </row>
     <row r="20" spans="1:9" ht="192.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>2</v>
@@ -6435,24 +6400,24 @@
     </row>
     <row r="21" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="43" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I21" s="16">
         <v>1999</v>
@@ -6460,60 +6425,60 @@
     </row>
     <row r="22" spans="1:9" s="59" customFormat="1" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="57" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
       <c r="G22" s="57" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>602</v>
-      </c>
-      <c r="I22" s="72">
+        <v>560</v>
+      </c>
+      <c r="I22" s="71">
         <v>39877</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="59" customFormat="1" ht="197.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="E23" s="58"/>
-      <c r="F23" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>597</v>
+      <c r="F23" s="69" t="s">
+        <v>548</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>555</v>
       </c>
       <c r="H23" s="58"/>
       <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -6523,13 +6488,13 @@
     </row>
     <row r="25" spans="1:9" ht="116.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>704</v>
+        <v>658</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -6540,49 +6505,49 @@
     </row>
     <row r="26" spans="1:9" ht="195.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="54" t="s">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>721</v>
+        <v>672</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="I27" s="16">
         <v>2008</v>
@@ -6590,24 +6555,24 @@
     </row>
     <row r="28" spans="1:9" ht="137.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I28" s="16">
         <v>1999</v>
@@ -6615,46 +6580,46 @@
     </row>
     <row r="29" spans="1:9" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="16" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" ht="339" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D30" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>385</v>
-      </c>
       <c r="H30" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I30" s="16">
         <v>2001</v>
@@ -6662,20 +6627,20 @@
     </row>
     <row r="31" spans="1:9" ht="153.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="I31" s="39">
         <v>39877</v>
@@ -6683,10 +6648,10 @@
     </row>
     <row r="32" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -6698,18 +6663,18 @@
     </row>
     <row r="33" spans="1:9" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="16" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -6717,13 +6682,13 @@
     </row>
     <row r="34" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -6734,24 +6699,24 @@
     </row>
     <row r="35" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="53" t="s">
-        <v>655</v>
+        <v>611</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="I35" s="16">
         <v>1999</v>
@@ -6759,16 +6724,16 @@
     </row>
     <row r="36" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -6786,12 +6751,12 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="16" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="51">
         <v>40086</v>
@@ -6835,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="G39" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6856,13 +6821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="84"/>
+      <c r="A1" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -6876,309 +6841,309 @@
       <c r="A2" s="28"/>
       <c r="B2" s="10"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="D2" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="59" customFormat="1" ht="119.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="57" t="s">
-        <v>660</v>
-      </c>
-      <c r="M4" s="58"/>
+    <row r="4" spans="1:13" s="76" customFormat="1" ht="119.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="75"/>
+      <c r="I4" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>691</v>
+        <v>646</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>663</v>
+        <v>619</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="16" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="M5" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="59" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-    </row>
-    <row r="7" spans="1:13" s="59" customFormat="1" ht="137.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="76" customFormat="1" ht="177.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+    </row>
+    <row r="7" spans="1:13" s="76" customFormat="1" ht="137.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="57">
+      <c r="D7" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="49">
         <v>1917</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-    </row>
-    <row r="8" spans="1:13" s="59" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="57" t="s">
+      <c r="I7" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+    </row>
+    <row r="8" spans="1:13" s="76" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="J8" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+    </row>
+    <row r="9" spans="1:13" s="76" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="49" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" spans="1:13" s="76" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="49">
         <v>1960</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="53" t="s">
-        <v>672</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="M10" s="18"/>
+      <c r="G10" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H10" s="75"/>
+      <c r="I10" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="K10" s="75"/>
+      <c r="L10" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>674</v>
+        <v>629</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="F11" s="16">
         <v>1965</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="16" t="s">
-        <v>679</v>
+        <v>634</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -7186,32 +7151,32 @@
     </row>
     <row r="12" spans="1:13" ht="193.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
       <c r="F12" s="16">
         <v>1965</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="16" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -7219,17 +7184,17 @@
     </row>
     <row r="13" spans="1:13" ht="244.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="16" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="16" t="s">
@@ -7250,169 +7215,169 @@
       </c>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" s="59" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="M14" s="58"/>
+    <row r="14" spans="1:13" s="76" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H14" s="75"/>
+      <c r="I14" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="16" t="s">
-        <v>682</v>
+        <v>637</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>683</v>
+        <v>638</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>697</v>
+        <v>651</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>695</v>
+        <v>649</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>694</v>
+        <v>648</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>696</v>
+        <v>650</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="16" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="59" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="57">
+    <row r="17" spans="1:13" s="76" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="49">
         <v>1967</v>
       </c>
-      <c r="G17" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="M17" s="58"/>
-    </row>
-    <row r="18" spans="1:13" s="59" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="G17" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" s="75"/>
+      <c r="I17" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="75"/>
+      <c r="L17" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:13" s="76" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="1:13" ht="126.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -7420,36 +7385,36 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="16" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="K19" s="18"/>
       <c r="L19" s="16" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
       <c r="G20" s="16"/>
       <c r="H20" s="18"/>
       <c r="I20" s="16" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="16"/>
@@ -7457,115 +7422,115 @@
     </row>
     <row r="21" spans="1:13" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>702</v>
+        <v>656</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="16" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="16"/>
       <c r="H21" s="18"/>
       <c r="I21" s="16" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13" s="59" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>606</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>607</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>609</v>
-      </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="69"/>
-    </row>
-    <row r="23" spans="1:13" s="59" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>585</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>511</v>
-      </c>
-      <c r="F23" s="57">
+    <row r="22" spans="1:13" s="76" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="75"/>
+      <c r="I22" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="1:13" s="76" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="49">
         <v>1962</v>
       </c>
-      <c r="G23" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="57" t="s">
-        <v>466</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
+      <c r="G23" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="49" t="s">
+        <v>435</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
     </row>
     <row r="24" spans="1:13" ht="338.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>703</v>
+        <v>657</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="F24" s="16">
         <v>1919</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="16" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -7573,20 +7538,20 @@
     </row>
     <row r="25" spans="1:13" ht="224.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="74" t="s">
-        <v>710</v>
+      <c r="D25" s="72" t="s">
+        <v>662</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>709</v>
+        <v>661</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -7598,25 +7563,25 @@
     </row>
     <row r="26" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>155</v>
+        <v>740</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -7624,29 +7589,29 @@
     </row>
     <row r="27" spans="1:13" ht="276.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>712</v>
+        <v>664</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>711</v>
+        <v>663</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="16" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -7655,123 +7620,123 @@
     </row>
     <row r="28" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="16" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="16" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="117.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>724</v>
+        <v>675</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>725</v>
+        <v>676</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="16" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="16" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="16" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>610</v>
+        <v>568</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="16" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -7779,25 +7744,25 @@
     </row>
     <row r="32" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -7806,50 +7771,50 @@
     </row>
     <row r="33" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="16" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="16" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="K33" s="18"/>
       <c r="L33" s="16" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -7862,51 +7827,51 @@
     </row>
     <row r="35" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="16" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="16" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -7920,23 +7885,23 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="16" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -7974,7 +7939,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7997,13 +7962,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="A1" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8020,841 +7985,841 @@
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>297</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="N3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="76" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="59" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="57" t="s">
+      <c r="B4" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="57" t="s">
-        <v>136</v>
+      <c r="K4" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="49" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" s="59" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="59" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="57" t="s">
+    <row r="6" spans="1:15" s="76" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="76" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="F7" s="75"/>
+      <c r="G7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="59" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="H7" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="76" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="75"/>
+      <c r="E8" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="57" t="s">
-        <v>84</v>
+      <c r="H8" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="49" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="16" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="16" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="16" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="16" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="16" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="K11" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="16" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="16" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="59" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>454</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="76" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N16" s="16"/>
       <c r="O16" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="59" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="59" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="57" t="s">
-        <v>228</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="76" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="76" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="75"/>
+      <c r="E18" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="16" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>298</v>
+        <v>744</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="16" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="16" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="16" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="16" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>460</v>
+        <v>52</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>745</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" s="59" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>636</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="73" t="s">
-        <v>637</v>
-      </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="57" t="s">
-        <v>638</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>639</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>647</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>648</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>570</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="57" t="s">
-        <v>641</v>
-      </c>
-      <c r="N22" s="57" t="s">
-        <v>642</v>
-      </c>
-      <c r="O22" s="57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="59" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>387</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="57" t="s">
-        <v>580</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57" t="s">
-        <v>581</v>
-      </c>
-      <c r="L23" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="57" t="s">
-        <v>228</v>
+    <row r="22" spans="1:15" s="76" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="L22" s="75"/>
+      <c r="M22" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="N22" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="O22" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="76" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="16" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="18"/>
       <c r="K24" s="16" t="s">
-        <v>559</v>
+        <v>745</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="16" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="16" t="s">
-        <v>654</v>
+        <v>610</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -8863,320 +8828,320 @@
     </row>
     <row r="26" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="16" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
       <c r="K26" s="16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="16" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="16" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="16" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N30" s="16"/>
       <c r="O30" s="16" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="16" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="16" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="N32" s="18"/>
       <c r="O32" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="16" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="16" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="18"/>
       <c r="K33" s="16" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -9186,68 +9151,68 @@
     </row>
     <row r="35" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -9262,31 +9227,31 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="16" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="16" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9317,7 +9282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -9331,13 +9296,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="A1" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -9348,27 +9313,27 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -9376,10 +9341,10 @@
     </row>
     <row r="5" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -9387,10 +9352,10 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -9398,36 +9363,36 @@
     </row>
     <row r="7" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -9435,10 +9400,10 @@
     </row>
     <row r="10" spans="1:5" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -9446,10 +9411,10 @@
     </row>
     <row r="11" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -9457,10 +9422,10 @@
     </row>
     <row r="12" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -9468,10 +9433,10 @@
     </row>
     <row r="13" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -9479,10 +9444,10 @@
     </row>
     <row r="14" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -9490,10 +9455,10 @@
     </row>
     <row r="15" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -9501,10 +9466,10 @@
     </row>
     <row r="16" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -9512,10 +9477,10 @@
     </row>
     <row r="17" spans="1:5" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -9523,10 +9488,10 @@
     </row>
     <row r="18" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -9534,10 +9499,10 @@
     </row>
     <row r="19" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -9545,10 +9510,10 @@
     </row>
     <row r="20" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -9556,10 +9521,10 @@
     </row>
     <row r="21" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9567,23 +9532,23 @@
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="16" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -9591,10 +9556,10 @@
     </row>
     <row r="24" spans="1:5" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -9602,10 +9567,10 @@
     </row>
     <row r="25" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -9613,10 +9578,10 @@
     </row>
     <row r="26" spans="1:5" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -9624,10 +9589,10 @@
     </row>
     <row r="27" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -9635,10 +9600,10 @@
     </row>
     <row r="28" spans="1:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -9646,10 +9611,10 @@
     </row>
     <row r="29" spans="1:5" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -9657,10 +9622,10 @@
     </row>
     <row r="30" spans="1:5" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -9668,36 +9633,36 @@
     </row>
     <row r="31" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="16" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -9705,10 +9670,10 @@
     </row>
     <row r="34" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -9716,10 +9681,10 @@
     </row>
     <row r="35" spans="1:5" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -9727,10 +9692,10 @@
     </row>
     <row r="36" spans="1:5" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -9787,11 +9752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
+      <c r="A1" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -9800,321 +9765,321 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="59" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" s="59" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C6" s="58"/>
     </row>
     <row r="7" spans="1:3" s="59" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="58"/>
     </row>
     <row r="8" spans="1:3" s="59" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="58"/>
     </row>
     <row r="9" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>689</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="59" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="57" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>732</v>
+        <v>314</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="18"/>
     </row>
@@ -10153,8 +10118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10168,14 +10133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="A1" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -10187,65 +10152,69 @@
     </row>
     <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E5" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F5" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" s="39">
         <v>39681</v>
@@ -10253,17 +10222,17 @@
     </row>
     <row r="7" spans="1:6" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="16" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F7" s="39">
         <v>39710</v>
@@ -10271,77 +10240,89 @@
     </row>
     <row r="8" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="16" t="s">
-        <v>86</v>
+        <v>746</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="39">
-        <v>39710</v>
+        <v>73</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E9" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F9" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F10" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E11" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F11" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="16" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" s="39">
         <v>39686</v>
@@ -10349,17 +10330,17 @@
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="16" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="39">
         <v>39714</v>
@@ -10367,77 +10348,77 @@
     </row>
     <row r="14" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>698</v>
+        <v>652</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="41" t="s">
-        <v>693</v>
+        <v>647</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>692</v>
+        <v>73</v>
+      </c>
+      <c r="F16" s="48">
+        <v>40646</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="16" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" s="39">
         <v>39688</v>
@@ -10445,29 +10426,29 @@
     </row>
     <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C19" s="18"/>
       <c r="E19" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="16" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="39">
         <v>39714</v>
@@ -10475,33 +10456,33 @@
     </row>
     <row r="21" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" s="39">
         <v>39877</v>
@@ -10509,31 +10490,31 @@
     </row>
     <row r="23" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="16" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" s="39">
         <v>39690</v>
@@ -10541,75 +10522,81 @@
     </row>
     <row r="25" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E25" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E27" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>731</v>
-      </c>
-      <c r="D28" s="18"/>
+        <v>327</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>681</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E28" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="16" t="s">
-        <v>560</v>
+        <v>746</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29" s="39">
         <v>39690</v>
@@ -10617,33 +10604,35 @@
     </row>
     <row r="30" spans="1:6" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="D30" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E30" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" s="39">
         <v>39877</v>
@@ -10651,17 +10640,17 @@
     </row>
     <row r="32" spans="1:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="41" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F32" s="48">
         <v>39953</v>
@@ -10669,59 +10658,63 @@
     </row>
     <row r="33" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="D33" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E33" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E34" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="16" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36" s="39">
         <v>39688</v>
@@ -10735,9 +10728,11 @@
         <v>10</v>
       </c>
       <c r="C37" s="18"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="16" t="s">
+        <v>647</v>
+      </c>
       <c r="E37" s="41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37" s="39"/>
     </row>

--- a/content/excel/Fichas década8 (1960).xlsx
+++ b/content/excel/Fichas década8 (1960).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -2916,9 +2916,6 @@
 “No mires atrás” es una combinación de actuaciones musicales y una mirada entre bastidores de uno de los artistas más influyentes en el mundo de la música contemporánea. http://www.fiuxy.com/educacion-ciencia-y-tecnologia/2034776-no-mires-atras-bob-dylan-1967-la2-dvbrip-espanol-2012-a.html </t>
   </si>
   <si>
-    <t>Registros fílmicos, fotografías,.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Música de época, grabación de campo, </t>
   </si>
   <si>
@@ -3256,6 +3253,9 @@
   </si>
   <si>
     <t>20/09/2012, 14/04/2015</t>
+  </si>
+  <si>
+    <t>Registros fílmicos, fotografías.</t>
   </si>
 </sst>
 </file>
@@ -3697,6 +3697,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3731,9 +3734,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4110,13 +4110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -4141,35 +4141,35 @@
     </row>
     <row r="2" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="83" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="T2" s="85"/>
-      <c r="U2" s="83" t="s">
+      <c r="T2" s="86"/>
+      <c r="U2" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="V2" s="85"/>
+      <c r="V2" s="86"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="13"/>
@@ -4279,7 +4279,7 @@
         <v>1961</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J4" s="75"/>
       <c r="K4" s="49" t="s">
@@ -4327,7 +4327,7 @@
         <v>1960</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
@@ -4375,7 +4375,7 @@
         <v>1962</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J6" s="75"/>
       <c r="K6" s="49" t="s">
@@ -4388,7 +4388,7 @@
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
       <c r="P6" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q6" s="75"/>
       <c r="R6" s="49" t="s">
@@ -4427,7 +4427,7 @@
         <v>1967</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J7" s="75"/>
       <c r="K7" s="49" t="s">
@@ -4475,7 +4475,7 @@
         <v>1969</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J8" s="75"/>
       <c r="K8" s="49" t="s">
@@ -4519,7 +4519,7 @@
         <v>1969</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="16" t="s">
@@ -4561,13 +4561,13 @@
         <v>1960</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>625</v>
@@ -4584,7 +4584,7 @@
         <v>339</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S10" s="16" t="s">
         <v>339</v>
@@ -4623,7 +4623,7 @@
         <v>1965</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="16" t="s">
@@ -4677,7 +4677,7 @@
         <v>1967</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="16" t="s">
@@ -4729,13 +4729,13 @@
         <v>1969</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -4777,7 +4777,7 @@
         <v>1969</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="49" t="s">
@@ -4821,7 +4821,7 @@
         <v>1968</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
@@ -4864,7 +4864,7 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -4877,11 +4877,11 @@
         <v>1967</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>254</v>
@@ -4931,7 +4931,7 @@
         <v>1967</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J17" s="75"/>
       <c r="K17" s="49" t="s">
@@ -4973,7 +4973,7 @@
         <v>1965</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J18" s="75"/>
       <c r="K18" s="49" t="s">
@@ -5021,7 +5021,7 @@
         <v>1968</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J19" s="18"/>
       <c r="K19" s="16" t="s">
@@ -5071,7 +5071,7 @@
         <v>1968</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="16" t="s">
@@ -5113,7 +5113,7 @@
         <v>1963</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
@@ -5138,7 +5138,7 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="76" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
         <v>1962</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="49" t="s">
@@ -5209,7 +5209,7 @@
         <v>1962</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J23" s="75"/>
       <c r="K23" s="49" t="s">
@@ -5265,7 +5265,7 @@
         <v>1969</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="16" t="s">
@@ -5276,7 +5276,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="16" t="s">
@@ -5311,11 +5311,11 @@
         <v>1961</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -5328,7 +5328,7 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="68" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
@@ -5355,7 +5355,7 @@
         <v>1968</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J26" s="75"/>
       <c r="K26" s="49" t="s">
@@ -5403,10 +5403,10 @@
         <v>1966</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>213</v>
@@ -5415,7 +5415,7 @@
         <v>213</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -5423,21 +5423,21 @@
         <v>213</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
@@ -5463,7 +5463,7 @@
         <v>1961</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16" t="s">
@@ -5476,7 +5476,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
@@ -5487,7 +5487,7 @@
         <v>386</v>
       </c>
       <c r="W28" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
@@ -5500,7 +5500,7 @@
         <v>328</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -5517,7 +5517,7 @@
         <v>1961</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="16" t="s">
@@ -5563,7 +5563,7 @@
         <v>1965</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J30" s="16"/>
       <c r="K30" s="16" t="s">
@@ -5607,7 +5607,7 @@
         <v>1968</v>
       </c>
       <c r="I31" s="49" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J31" s="49"/>
       <c r="K31" s="49" t="s">
@@ -5649,11 +5649,11 @@
         <v>1968</v>
       </c>
       <c r="I32" s="49" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J32" s="75"/>
       <c r="K32" s="49" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L32" s="75"/>
       <c r="M32" s="75"/>
@@ -5693,7 +5693,7 @@
         <v>1962</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J33" s="16"/>
       <c r="K33" s="16" t="s">
@@ -5733,7 +5733,7 @@
         <v>1963</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J34" s="16"/>
       <c r="K34" s="16" t="s">
@@ -5743,7 +5743,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -5777,7 +5777,7 @@
         <v>1961</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J35" s="16"/>
       <c r="K35" s="16" t="s">
@@ -5793,23 +5793,23 @@
         <v>401</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R35" s="16" t="s">
         <v>402</v>
       </c>
       <c r="T35" s="16"/>
       <c r="U35" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="V35" s="16" t="s">
         <v>695</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>696</v>
       </c>
       <c r="W35" s="18"/>
       <c r="X35" s="18"/>
       <c r="Y35" s="18"/>
       <c r="Z35" s="16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:26" s="76" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,7 +5834,7 @@
         <v>1962</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J36" s="75"/>
       <c r="K36" s="49" t="s">
@@ -5882,7 +5882,7 @@
         <v>1965</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="16" t="s">
@@ -5965,13 +5965,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -5980,11 +5980,11 @@
     <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="21"/>
       <c r="G2" s="23"/>
       <c r="H2" s="24"/>
@@ -6186,7 +6186,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="67" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -6284,7 +6284,7 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>340</v>
@@ -6494,7 +6494,7 @@
         <v>324</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -6535,7 +6535,7 @@
         <v>194</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>195</v>
@@ -6751,7 +6751,7 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -6800,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="G39" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6821,13 +6821,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -6841,19 +6841,19 @@
       <c r="A2" s="28"/>
       <c r="B2" s="10"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="80" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -6931,7 +6931,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>404</v>
@@ -6940,7 +6940,7 @@
         <v>619</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>620</v>
@@ -7190,11 +7190,11 @@
         <v>72</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="16" t="s">
@@ -7250,7 +7250,7 @@
         <v>244</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -7260,10 +7260,10 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>637</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>638</v>
       </c>
       <c r="K15" s="18"/>
       <c r="L15" s="16" t="s">
@@ -7276,16 +7276,16 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>647</v>
+      </c>
+      <c r="E16" s="68" t="s">
         <v>649</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>648</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>650</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="16" t="s">
@@ -7374,7 +7374,7 @@
         <v>308</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>471</v>
@@ -7428,11 +7428,11 @@
         <v>414</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="16"/>
@@ -7510,7 +7510,7 @@
         <v>365</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>106</v>
@@ -7545,13 +7545,13 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="72" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -7566,7 +7566,7 @@
         <v>77</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>99</v>
@@ -7595,16 +7595,16 @@
         <v>325</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>665</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>311</v>
@@ -7626,16 +7626,16 @@
         <v>327</v>
       </c>
       <c r="C28" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" s="53" t="s">
         <v>683</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>686</v>
-      </c>
-      <c r="E28" s="53" t="s">
+      <c r="F28" s="53" t="s">
         <v>684</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>685</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>311</v>
@@ -7653,19 +7653,19 @@
     </row>
     <row r="29" spans="1:13" ht="117.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>314</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D29" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>675</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>676</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>525</v>
@@ -7694,7 +7694,7 @@
         <v>330</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>499</v>
@@ -7808,13 +7808,13 @@
         <v>332</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>691</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>692</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -7833,7 +7833,7 @@
         <v>398</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -7885,10 +7885,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>16</v>
@@ -7962,13 +7962,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7985,19 +7985,19 @@
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="81" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="80" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="81" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F7" s="75"/>
       <c r="G7" s="49" t="s">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F8" s="75"/>
       <c r="G8" s="49" t="s">
@@ -8272,7 +8272,7 @@
         <v>208</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>39</v>
@@ -8475,7 +8475,7 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>200</v>
@@ -8603,7 +8603,7 @@
         <v>48</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -8675,7 +8675,7 @@
         <v>52</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L21" s="38" t="s">
         <v>430</v>
@@ -8697,7 +8697,7 @@
         <v>200</v>
       </c>
       <c r="D22" s="75"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="79" t="s">
         <v>593</v>
       </c>
       <c r="F22" s="75"/>
@@ -8784,7 +8784,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="18"/>
       <c r="K24" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -9296,13 +9296,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -9469,7 +9469,7 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -9752,11 +9752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
@@ -9867,7 +9867,7 @@
         <v>72</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="59" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -9893,7 +9893,7 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="18"/>
     </row>
@@ -10017,7 +10017,7 @@
         <v>314</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -10118,7 +10118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -10133,14 +10133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>73</v>
@@ -10247,13 +10247,13 @@
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>73</v>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>73</v>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>73</v>
@@ -10379,11 +10379,11 @@
         <v>376</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>73</v>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>73</v>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>73</v>
@@ -10574,10 +10574,10 @@
         <v>327</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>73</v>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>73</v>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>73</v>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>73</v>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>73</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>73</v>

--- a/content/excel/Fichas década8 (1960).xlsx
+++ b/content/excel/Fichas década8 (1960).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="-75" windowWidth="19320" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ÁREA DE IDENTIFICACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="748">
   <si>
     <t>La Hora de los hornos, es un documental sobre los efectos del imperialismo en Sudamérica.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3252,10 +3252,10 @@
     <t>Úrsula Mares, Penélope Ubaldo</t>
   </si>
   <si>
-    <t>20/09/2012, 14/04/2015</t>
-  </si>
-  <si>
     <t>Registros fílmicos, fotografías.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14/04/2015</t>
   </si>
 </sst>
 </file>
@@ -4073,10 +4073,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6800,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="75" zoomScaleNormal="59" zoomScalePageLayoutView="59" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>637</v>
@@ -10118,8 +10118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10253,7 +10253,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10368,11 +10368,15 @@
         <v>244</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="D15" s="41" t="s">
+        <v>646</v>
+      </c>
       <c r="E15" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -10534,7 +10538,9 @@
       <c r="E25" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
@@ -10564,7 +10570,9 @@
       <c r="E27" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="48">
+        <v>40646</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
@@ -10582,7 +10590,9 @@
       <c r="E28" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="48">
+        <v>40648</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
@@ -10616,7 +10626,9 @@
       <c r="E30" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="48">
+        <v>40648</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
@@ -10670,7 +10682,9 @@
       <c r="E33" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="48">
+        <v>40648</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -10686,7 +10700,9 @@
       <c r="E34" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="48">
+        <v>40648</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
@@ -10734,7 +10750,9 @@
       <c r="E37" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="39"/>
+      <c r="F37" s="48">
+        <v>40648</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
